--- a/Projects/CCNAYARMX/Data/CCNayar_POS_Options_v3.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayar_POS_Options_v3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="POS Options" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="95">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -297,9 +297,6 @@
   </si>
   <si>
     <t xml:space="preserve">Grande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comidas </t>
   </si>
   <si>
     <t xml:space="preserve">Chico</t>
@@ -562,28 +559,28 @@
   </sheetPr>
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="49.1925925925926"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="27.9296296296296"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="38.9037037037037"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="32.0444444444444"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="2" width="31.5555555555556"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="23.8111111111111"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="35.8666666666667"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="25.5777777777778"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="20.9703703703704"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="26.6555555555556"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="120.237037037037"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="144.833333333333"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="91.8185185185185"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="107.5"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="20.1851851851852"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="11.0740740740741"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="50.4666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="28.6148148148148"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="39.8851851851852"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="32.8296296296296"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="2" width="32.337037037037"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="24.4"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="36.7481481481481"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="26.262962962963"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="21.4592592592593"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="27.3407407407407"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="123.277777777778"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="148.559259259259"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="94.1703703703704"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="110.244444444444"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="20.6777777777778"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="11.3666666666667"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1021,20 +1018,20 @@
   </sheetPr>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.9666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.5777777777778"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.3185185185185"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.9074074074074"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.5740740740741"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6777777777778"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.8888888888889"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.7518518518519"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.262962962963"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.1037037037037"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.5925925925926"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.3592592592593"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.0703703703704"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.6703703703704"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.9740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1130,10 +1127,10 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>17</v>
@@ -1147,10 +1144,10 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>33</v>
@@ -1164,7 +1161,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>90</v>
@@ -1181,7 +1178,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>90</v>
@@ -1198,7 +1195,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>91</v>
@@ -1215,7 +1212,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>91</v>
@@ -1246,7 +1243,7 @@
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1265,7 +1262,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1284,7 +1281,7 @@
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1303,7 +1300,7 @@
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1320,7 +1317,7 @@
         <v>10</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F16" s="7" t="n">
         <v>3</v>
@@ -1341,7 +1338,7 @@
         <v>8</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="n">
         <v>3</v>
@@ -1362,7 +1359,7 @@
         <v>12</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F18" s="7" t="n">
         <v>3</v>
@@ -1383,7 +1380,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F19" s="7" t="n">
         <v>3</v>
